--- a/biology/Histoire de la zoologie et de la botanique/Lyall_Watson/Lyall_Watson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lyall_Watson/Lyall_Watson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyall Watson, né à Johannesbourg le 12 avril 1939 et mort à Gympie en Australie le 25 juin 2008, est un biologiste sud-africain
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malcolm Lyall-Watson naît à Johannesburg. Son père est architecte, et sa mère, descendante de Simon van der Stel, premier gouverneur de la colonie néerlandaise du Cap, est radiologue[1]. Il est pensionnaire au Rondebosch Boys' High School du Cap, puis étudie la zoologie et la botanique à l'université du Witwatersrand[1]. Il obtient un doctorat d'éthologie à l'université de Londres, dirigé par Desmond Morris. Il devient producteur pour la BBC et directeur de plusieurs zoos en Afrique du Sud, notamment du zoo de Johannesbourg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malcolm Lyall-Watson naît à Johannesburg. Son père est architecte, et sa mère, descendante de Simon van der Stel, premier gouverneur de la colonie néerlandaise du Cap, est radiologue. Il est pensionnaire au Rondebosch Boys' High School du Cap, puis étudie la zoologie et la botanique à l'université du Witwatersrand. Il obtient un doctorat d'éthologie à l'université de Londres, dirigé par Desmond Morris. Il devient producteur pour la BBC et directeur de plusieurs zoos en Afrique du Sud, notamment du zoo de Johannesbourg.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dark nature : a natural history of evil, 1994
 Jacobson's organ and the remarkable nature of smell
